--- a/Code/Results/Cases/Case_1_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9543941558217701</v>
+        <v>1.014472626724884</v>
       </c>
       <c r="D2">
-        <v>1.027220560055952</v>
+        <v>1.04003660180095</v>
       </c>
       <c r="E2">
-        <v>0.9666428082594422</v>
+        <v>1.016200295271653</v>
       </c>
       <c r="F2">
-        <v>1.014220784430265</v>
+        <v>1.042866889444925</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046003403562491</v>
+        <v>1.033320481670482</v>
       </c>
       <c r="J2">
-        <v>0.9780300871620153</v>
+        <v>1.019703665611906</v>
       </c>
       <c r="K2">
-        <v>1.03831326027814</v>
+        <v>1.042820089625907</v>
       </c>
       <c r="L2">
-        <v>0.9785872897327247</v>
+        <v>1.019053176183402</v>
       </c>
       <c r="M2">
-        <v>1.025485493418435</v>
+        <v>1.045642366384276</v>
       </c>
       <c r="N2">
-        <v>0.9957069976351319</v>
+        <v>1.010512101947724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9619684797775264</v>
+        <v>1.015984545280922</v>
       </c>
       <c r="D3">
-        <v>1.030520556264646</v>
+        <v>1.040703179401188</v>
       </c>
       <c r="E3">
-        <v>0.9728987020058231</v>
+        <v>1.017501368530942</v>
       </c>
       <c r="F3">
-        <v>1.01909555998813</v>
+        <v>1.043884044043582</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046925813541463</v>
+        <v>1.033432032108268</v>
       </c>
       <c r="J3">
-        <v>0.9835524945343913</v>
+        <v>1.020847203927548</v>
       </c>
       <c r="K3">
-        <v>1.040777264139525</v>
+        <v>1.043297387072164</v>
       </c>
       <c r="L3">
-        <v>0.9838905095087566</v>
+        <v>1.020158205455324</v>
       </c>
       <c r="M3">
-        <v>1.029489803312523</v>
+        <v>1.046469899985069</v>
       </c>
       <c r="N3">
-        <v>0.9976782814202864</v>
+        <v>1.010906688163961</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9667205146682103</v>
+        <v>1.016961764608468</v>
       </c>
       <c r="D4">
-        <v>1.032601883928675</v>
+        <v>1.04113361854109</v>
       </c>
       <c r="E4">
-        <v>0.9768313459597362</v>
+        <v>1.018342528210695</v>
       </c>
       <c r="F4">
-        <v>1.0221680360759</v>
+        <v>1.044541364715324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04749453843248</v>
+        <v>1.033502509462256</v>
       </c>
       <c r="J4">
-        <v>0.9870156011667072</v>
+        <v>1.021585755493524</v>
       </c>
       <c r="K4">
-        <v>1.042322133075027</v>
+        <v>1.043604669792253</v>
       </c>
       <c r="L4">
-        <v>0.9872176800820408</v>
+        <v>1.020871982589181</v>
       </c>
       <c r="M4">
-        <v>1.032006076547517</v>
+        <v>1.047003919362935</v>
       </c>
       <c r="N4">
-        <v>0.9989124636237006</v>
+        <v>1.011161095301501</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.968684686199393</v>
+        <v>1.01737233355766</v>
       </c>
       <c r="D5">
-        <v>1.033464443252269</v>
+        <v>1.041314363960756</v>
       </c>
       <c r="E5">
-        <v>0.9784585758811926</v>
+        <v>1.018695984428887</v>
       </c>
       <c r="F5">
-        <v>1.023441007168059</v>
+        <v>1.044817501088867</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047727078787381</v>
+        <v>1.033531730264007</v>
       </c>
       <c r="J5">
-        <v>0.9884465455601213</v>
+        <v>1.021895914100059</v>
       </c>
       <c r="K5">
-        <v>1.042960177176109</v>
+        <v>1.043733477897608</v>
       </c>
       <c r="L5">
-        <v>0.9885928060484757</v>
+        <v>1.021171760040697</v>
       </c>
       <c r="M5">
-        <v>1.033046797648533</v>
+        <v>1.047228075233636</v>
       </c>
       <c r="N5">
-        <v>0.9994219095726132</v>
+        <v>1.011267830293866</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9690125675401606</v>
+        <v>1.017441255213879</v>
       </c>
       <c r="D6">
-        <v>1.033608555492306</v>
+        <v>1.04134469951992</v>
       </c>
       <c r="E6">
-        <v>0.9787303100027129</v>
+        <v>1.018755321630427</v>
       </c>
       <c r="F6">
-        <v>1.023653672808001</v>
+        <v>1.044863853840272</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047765744229561</v>
+        <v>1.03353661264346</v>
       </c>
       <c r="J6">
-        <v>0.988685384465901</v>
+        <v>1.021947971986615</v>
       </c>
       <c r="K6">
-        <v>1.043066649942279</v>
+        <v>1.043755083441887</v>
       </c>
       <c r="L6">
-        <v>0.9888223484992982</v>
+        <v>1.021222076870625</v>
       </c>
       <c r="M6">
-        <v>1.033220556964088</v>
+        <v>1.047265691745848</v>
       </c>
       <c r="N6">
-        <v>0.999506910061262</v>
+        <v>1.011285738846469</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9667468893450758</v>
+        <v>1.016967251639693</v>
       </c>
       <c r="D7">
-        <v>1.032613457705831</v>
+        <v>1.041136034500455</v>
       </c>
       <c r="E7">
-        <v>0.9768531894960637</v>
+        <v>1.018347251760641</v>
       </c>
       <c r="F7">
-        <v>1.022185117918718</v>
+        <v>1.044545055252126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047497671157988</v>
+        <v>1.03350290151489</v>
       </c>
       <c r="J7">
-        <v>0.987034817709087</v>
+        <v>1.021589901132135</v>
       </c>
       <c r="K7">
-        <v>1.042330702971236</v>
+        <v>1.043606392400223</v>
       </c>
       <c r="L7">
-        <v>0.9872361456557834</v>
+        <v>1.020875989381045</v>
       </c>
       <c r="M7">
-        <v>1.032020048994641</v>
+        <v>1.047006915902149</v>
       </c>
       <c r="N7">
-        <v>0.9989193071881822</v>
+        <v>1.011162522353339</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9569861233490844</v>
+        <v>1.014983817610201</v>
       </c>
       <c r="D8">
-        <v>1.02834729844951</v>
+        <v>1.040262057123983</v>
       </c>
       <c r="E8">
-        <v>0.9687818801504338</v>
+        <v>1.016640151808293</v>
       </c>
       <c r="F8">
-        <v>1.015885741294752</v>
+        <v>1.043210817690324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046321077869263</v>
+        <v>1.033358533260207</v>
       </c>
       <c r="J8">
-        <v>0.9799201552587609</v>
+        <v>1.020090421614083</v>
       </c>
       <c r="K8">
-        <v>1.039156504524123</v>
+        <v>1.04298171772145</v>
       </c>
       <c r="L8">
-        <v>0.9804020104793759</v>
+        <v>1.019426887959555</v>
       </c>
       <c r="M8">
-        <v>1.026854745146075</v>
+        <v>1.045922336303236</v>
       </c>
       <c r="N8">
-        <v>0.9963820831797656</v>
+        <v>1.010645644977287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9385393616050668</v>
+        <v>1.011480039302787</v>
       </c>
       <c r="D9">
-        <v>1.020391855053572</v>
+        <v>1.038715258406494</v>
       </c>
       <c r="E9">
-        <v>0.9535979281547619</v>
+        <v>1.013626250248608</v>
       </c>
       <c r="F9">
-        <v>1.004114496369036</v>
+        <v>1.040853174920126</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044023134078925</v>
+        <v>1.033091097909824</v>
       </c>
       <c r="J9">
-        <v>0.966466112811025</v>
+        <v>1.017437231075015</v>
       </c>
       <c r="K9">
-        <v>1.033162530775285</v>
+        <v>1.041869004029306</v>
       </c>
       <c r="L9">
-        <v>0.9674915569931104</v>
+        <v>1.016863584155789</v>
       </c>
       <c r="M9">
-        <v>1.017141169604266</v>
+        <v>1.044000001871817</v>
       </c>
       <c r="N9">
-        <v>0.9915693221701047</v>
+        <v>1.009727747090801</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.925235271545893</v>
+        <v>1.009137847961366</v>
       </c>
       <c r="D10">
-        <v>1.014755670063861</v>
+        <v>1.037679537571036</v>
       </c>
       <c r="E10">
-        <v>0.9427054850251052</v>
+        <v>1.011612755257051</v>
       </c>
       <c r="F10">
-        <v>0.9957465665224911</v>
+        <v>1.03927691911508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042325778586096</v>
+        <v>1.032904045206979</v>
       </c>
       <c r="J10">
-        <v>0.9567648596960043</v>
+        <v>1.015660763196928</v>
       </c>
       <c r="K10">
-        <v>1.028863520978369</v>
+        <v>1.041119146068815</v>
       </c>
       <c r="L10">
-        <v>0.9581924535600451</v>
+        <v>1.015147810940389</v>
       </c>
       <c r="M10">
-        <v>1.01019304505539</v>
+        <v>1.042710850355354</v>
       </c>
       <c r="N10">
-        <v>0.9880913433321207</v>
+        <v>1.009110940538285</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9191910510196426</v>
+        <v>1.008122042420112</v>
       </c>
       <c r="D11">
-        <v>1.012226367605298</v>
+        <v>1.037229987276775</v>
       </c>
       <c r="E11">
-        <v>0.9377736147179815</v>
+        <v>1.010739809565534</v>
       </c>
       <c r="F11">
-        <v>0.9919816120601216</v>
+        <v>1.038593295075287</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041547823245916</v>
+        <v>1.032820971533971</v>
       </c>
       <c r="J11">
-        <v>0.9523599011978142</v>
+        <v>1.014889637731391</v>
       </c>
       <c r="K11">
-        <v>1.026921338021911</v>
+        <v>1.040792537045736</v>
       </c>
       <c r="L11">
-        <v>0.9539728500272922</v>
+        <v>1.014403154310602</v>
       </c>
       <c r="M11">
-        <v>1.007056344390676</v>
+        <v>1.042150811403045</v>
       </c>
       <c r="N11">
-        <v>0.9865109200263918</v>
+        <v>1.008842676582181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9168988875175632</v>
+        <v>1.007744474137259</v>
       </c>
       <c r="D12">
-        <v>1.011272561278656</v>
+        <v>1.037062842502643</v>
       </c>
       <c r="E12">
-        <v>0.9359060762238766</v>
+        <v>1.010415388300099</v>
       </c>
       <c r="F12">
-        <v>0.9905600841629103</v>
+        <v>1.038339200145285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041252027550887</v>
+        <v>1.032789801959818</v>
       </c>
       <c r="J12">
-        <v>0.950689958385321</v>
+        <v>1.014602914931416</v>
       </c>
       <c r="K12">
-        <v>1.026186937138192</v>
+        <v>1.040670931726069</v>
       </c>
       <c r="L12">
-        <v>0.9523736233822696</v>
+        <v>1.014126291813578</v>
       </c>
       <c r="M12">
-        <v>1.00587040061168</v>
+        <v>1.041942511478225</v>
       </c>
       <c r="N12">
-        <v>0.9859116494607483</v>
+        <v>1.008742851637598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9173927736503451</v>
+        <v>1.007825475408861</v>
       </c>
       <c r="D13">
-        <v>1.011477820495265</v>
+        <v>1.037098702946274</v>
       </c>
       <c r="E13">
-        <v>0.936308339092864</v>
+        <v>1.010484985581159</v>
       </c>
       <c r="F13">
-        <v>0.9908660812997973</v>
+        <v>1.038393711938773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041315792201235</v>
+        <v>1.032796502072577</v>
       </c>
       <c r="J13">
-        <v>0.9510497477651478</v>
+        <v>1.01466443128562</v>
       </c>
       <c r="K13">
-        <v>1.026345071489247</v>
+        <v>1.040697029527468</v>
       </c>
       <c r="L13">
-        <v>0.9527181561969463</v>
+        <v>1.014185691798605</v>
       </c>
       <c r="M13">
-        <v>1.006125760133868</v>
+        <v>1.041987205063376</v>
       </c>
       <c r="N13">
-        <v>0.9860407669726754</v>
+        <v>1.008764272595604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9190025685820031</v>
+        <v>1.008090837720714</v>
       </c>
       <c r="D14">
-        <v>1.012147823661009</v>
+        <v>1.037216174338332</v>
       </c>
       <c r="E14">
-        <v>0.9376199906312312</v>
+        <v>1.010712996317184</v>
       </c>
       <c r="F14">
-        <v>0.9918645896182382</v>
+        <v>1.038572294917992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04152351429034</v>
+        <v>1.03281840141851</v>
       </c>
       <c r="J14">
-        <v>0.9522225708518607</v>
+        <v>1.014865943139562</v>
       </c>
       <c r="K14">
-        <v>1.026860902571987</v>
+        <v>1.04078249099333</v>
       </c>
       <c r="L14">
-        <v>0.9538413258657072</v>
+        <v>1.014380274188718</v>
       </c>
       <c r="M14">
-        <v>1.006958748833123</v>
+        <v>1.042133598918406</v>
       </c>
       <c r="N14">
-        <v>0.9864616402351765</v>
+        <v>1.008834428700447</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9199880337211953</v>
+        <v>1.008254302411132</v>
       </c>
       <c r="D15">
-        <v>1.012558707301882</v>
+        <v>1.037288530900274</v>
       </c>
       <c r="E15">
-        <v>0.9384233165651252</v>
+        <v>1.010853458478893</v>
       </c>
       <c r="F15">
-        <v>0.9924766910108522</v>
+        <v>1.038682303658233</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041650582009248</v>
+        <v>1.032831852942929</v>
       </c>
       <c r="J15">
-        <v>0.9529406153536809</v>
+        <v>1.0149900622922</v>
       </c>
       <c r="K15">
-        <v>1.027176974309997</v>
+        <v>1.040835108423488</v>
       </c>
       <c r="L15">
-        <v>0.9545290305611818</v>
+        <v>1.014500127671839</v>
       </c>
       <c r="M15">
-        <v>1.007469168984397</v>
+        <v>1.04222376030457</v>
       </c>
       <c r="N15">
-        <v>0.9867192995419767</v>
+        <v>1.008877630308489</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.92563006618852</v>
+        <v>1.009205228679451</v>
       </c>
       <c r="D16">
-        <v>1.014921580623394</v>
+        <v>1.037709350060756</v>
       </c>
       <c r="E16">
-        <v>0.9430279910069101</v>
+        <v>1.011670666267362</v>
       </c>
       <c r="F16">
-        <v>0.995993304001304</v>
+        <v>1.039322265750767</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042376472693858</v>
+        <v>1.032909514737067</v>
       </c>
       <c r="J16">
-        <v>0.9570526476136936</v>
+        <v>1.015711899600034</v>
       </c>
       <c r="K16">
-        <v>1.028990645967331</v>
+        <v>1.041140781641946</v>
       </c>
       <c r="L16">
-        <v>0.958468191345471</v>
+        <v>1.015197194682216</v>
       </c>
       <c r="M16">
-        <v>1.010398387677923</v>
+        <v>1.042747979623351</v>
       </c>
       <c r="N16">
-        <v>0.9881945764137936</v>
+        <v>1.009128719238746</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9290903049586625</v>
+        <v>1.00980127900544</v>
       </c>
       <c r="D17">
-        <v>1.016379327373163</v>
+        <v>1.037973030592478</v>
       </c>
       <c r="E17">
-        <v>0.9458565551674858</v>
+        <v>1.012182982799052</v>
       </c>
       <c r="F17">
-        <v>0.9981600867651909</v>
+        <v>1.039723402510416</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042820048763144</v>
+        <v>1.03295767340871</v>
       </c>
       <c r="J17">
-        <v>0.959575305409525</v>
+        <v>1.016164174942012</v>
       </c>
       <c r="K17">
-        <v>1.030106135857695</v>
+        <v>1.041332009250274</v>
       </c>
       <c r="L17">
-        <v>0.9608855352413318</v>
+        <v>1.015633982795791</v>
       </c>
       <c r="M17">
-        <v>1.012200453417104</v>
+        <v>1.043076317848331</v>
       </c>
       <c r="N17">
-        <v>0.9890993550730598</v>
+        <v>1.009285902594273</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9310815886422148</v>
+        <v>1.01014878928281</v>
       </c>
       <c r="D18">
-        <v>1.017221110313824</v>
+        <v>1.038126727141745</v>
       </c>
       <c r="E18">
-        <v>0.9474858718971687</v>
+        <v>1.012481703743412</v>
       </c>
       <c r="F18">
-        <v>0.9994104055841688</v>
+        <v>1.03995727329621</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043074658693989</v>
+        <v>1.03298556299309</v>
       </c>
       <c r="J18">
-        <v>0.9610272497085715</v>
+        <v>1.016427796315401</v>
       </c>
       <c r="K18">
-        <v>1.030749061512785</v>
+        <v>1.041443364281901</v>
       </c>
       <c r="L18">
-        <v>0.9622771208347974</v>
+        <v>1.015888588808388</v>
       </c>
       <c r="M18">
-        <v>1.013239323962335</v>
+        <v>1.04326765575171</v>
       </c>
       <c r="N18">
-        <v>0.9896199932650447</v>
+        <v>1.009377471019994</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9317561085591703</v>
+        <v>1.010267255161924</v>
       </c>
       <c r="D19">
-        <v>1.01750672297931</v>
+        <v>1.038179116080815</v>
       </c>
       <c r="E19">
-        <v>0.9480380352482396</v>
+        <v>1.01258354232336</v>
       </c>
       <c r="F19">
-        <v>0.9998344877497188</v>
+        <v>1.040036999356334</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043160785665047</v>
+        <v>1.032995038603634</v>
       </c>
       <c r="J19">
-        <v>0.9615191071507858</v>
+        <v>1.016517653517244</v>
       </c>
       <c r="K19">
-        <v>1.030966997489304</v>
+        <v>1.041481302136448</v>
       </c>
       <c r="L19">
-        <v>0.9627485737955717</v>
+        <v>1.015975375059163</v>
       </c>
       <c r="M19">
-        <v>1.013591519989076</v>
+        <v>1.043332867197682</v>
       </c>
       <c r="N19">
-        <v>0.9897963419739333</v>
+        <v>1.009408674218924</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9287218787278751</v>
+        <v>1.0097373446283</v>
       </c>
       <c r="D20">
-        <v>1.016223810356745</v>
+        <v>1.037944750908557</v>
       </c>
       <c r="E20">
-        <v>0.945555223372312</v>
+        <v>1.012128026954085</v>
       </c>
       <c r="F20">
-        <v>0.9979290230005193</v>
+        <v>1.039680375259582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042772885971713</v>
+        <v>1.032952527183476</v>
       </c>
       <c r="J20">
-        <v>0.9593066836679291</v>
+        <v>1.016115669072883</v>
       </c>
       <c r="K20">
-        <v>1.029987258843383</v>
+        <v>1.041311511455017</v>
       </c>
       <c r="L20">
-        <v>0.9606281008798445</v>
+        <v>1.015587136686913</v>
       </c>
       <c r="M20">
-        <v>1.012008386054277</v>
+        <v>1.04304110850622</v>
       </c>
       <c r="N20">
-        <v>0.9890030227813204</v>
+        <v>1.009269050111003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9185298628045596</v>
+        <v>1.008012702189515</v>
       </c>
       <c r="D21">
-        <v>1.011950927885443</v>
+        <v>1.03718158640783</v>
       </c>
       <c r="E21">
-        <v>0.937234753857861</v>
+        <v>1.010645857595856</v>
       </c>
       <c r="F21">
-        <v>0.9915712057832115</v>
+        <v>1.038519711294996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041462537023605</v>
+        <v>1.032811961228563</v>
       </c>
       <c r="J21">
-        <v>0.9518781619900045</v>
+        <v>1.014806611047435</v>
       </c>
       <c r="K21">
-        <v>1.026709369222348</v>
+        <v>1.040757332680301</v>
       </c>
       <c r="L21">
-        <v>0.9535114855608674</v>
+        <v>1.014322981858226</v>
       </c>
       <c r="M21">
-        <v>1.006714043333018</v>
+        <v>1.042090497225722</v>
       </c>
       <c r="N21">
-        <v>0.9863380503500169</v>
+        <v>1.008813774455461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9118466700572262</v>
+        <v>1.006926883318906</v>
       </c>
       <c r="D22">
-        <v>1.009181024075427</v>
+        <v>1.036700818543317</v>
       </c>
       <c r="E22">
-        <v>0.9317952680044936</v>
+        <v>1.00971296982019</v>
       </c>
       <c r="F22">
-        <v>0.9874393327456793</v>
+        <v>1.037788991312763</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040598941036759</v>
+        <v>1.032721774868431</v>
       </c>
       <c r="J22">
-        <v>0.9470104618126319</v>
+        <v>1.013981858907653</v>
       </c>
       <c r="K22">
-        <v>1.024572771078151</v>
+        <v>1.040407230924041</v>
       </c>
       <c r="L22">
-        <v>0.9488508071913748</v>
+        <v>1.01352662780813</v>
       </c>
       <c r="M22">
-        <v>1.003263794223352</v>
+        <v>1.041491209344009</v>
       </c>
       <c r="N22">
-        <v>0.9845910774269367</v>
+        <v>1.008526483458712</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9154173075969091</v>
+        <v>1.007502638691648</v>
       </c>
       <c r="D23">
-        <v>1.010657662777673</v>
+        <v>1.036955771440791</v>
       </c>
       <c r="E23">
-        <v>0.9346997831730491</v>
+        <v>1.010207607298348</v>
       </c>
       <c r="F23">
-        <v>0.9896431222133493</v>
+        <v>1.038176451908121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041060651971098</v>
+        <v>1.032769755653644</v>
       </c>
       <c r="J23">
-        <v>0.9496107455977891</v>
+        <v>1.014419238521985</v>
       </c>
       <c r="K23">
-        <v>1.02571291384006</v>
+        <v>1.040592984690715</v>
       </c>
       <c r="L23">
-        <v>0.9513402420819705</v>
+        <v>1.013948937217806</v>
       </c>
       <c r="M23">
-        <v>1.005104939546286</v>
+        <v>1.041809055574957</v>
       </c>
       <c r="N23">
-        <v>0.9855243393114055</v>
+        <v>1.008678881239402</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9288884378359812</v>
+        <v>1.009766234302906</v>
       </c>
       <c r="D24">
-        <v>1.016294107986616</v>
+        <v>1.037957529601723</v>
       </c>
       <c r="E24">
-        <v>0.9456914454637667</v>
+        <v>1.012152859458416</v>
       </c>
       <c r="F24">
-        <v>0.9980334724467547</v>
+        <v>1.039699817748601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042794209513325</v>
+        <v>1.032954853160979</v>
       </c>
       <c r="J24">
-        <v>0.9594281222411168</v>
+        <v>1.016137587353471</v>
       </c>
       <c r="K24">
-        <v>1.030040998044813</v>
+        <v>1.041320774097701</v>
       </c>
       <c r="L24">
-        <v>0.960744481067048</v>
+        <v>1.015608304937432</v>
       </c>
       <c r="M24">
-        <v>1.012095210748639</v>
+        <v>1.043057018637279</v>
       </c>
       <c r="N24">
-        <v>0.9890465730731011</v>
+        <v>1.009276665375042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9434720831006602</v>
+        <v>1.012386931909205</v>
       </c>
       <c r="D25">
-        <v>1.022504100532928</v>
+        <v>1.039115940522589</v>
       </c>
       <c r="E25">
-        <v>0.9576490700935147</v>
+        <v>1.014406135652801</v>
       </c>
       <c r="F25">
-        <v>1.007243824493856</v>
+        <v>1.041463467260606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044645209181811</v>
+        <v>1.033161781135759</v>
       </c>
       <c r="J25">
-        <v>0.9700640025594479</v>
+        <v>1.018124472367177</v>
       </c>
       <c r="K25">
-        <v>1.034762832365221</v>
+        <v>1.042158085083129</v>
       </c>
       <c r="L25">
-        <v>0.9709424479790998</v>
+        <v>1.017527453380116</v>
       </c>
       <c r="M25">
-        <v>1.019730720623002</v>
+        <v>1.044498303604836</v>
       </c>
       <c r="N25">
-        <v>0.9928578368788682</v>
+        <v>1.009965897125824</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_111/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_111/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014472626724884</v>
+        <v>0.9543941558217701</v>
       </c>
       <c r="D2">
-        <v>1.04003660180095</v>
+        <v>1.027220560055952</v>
       </c>
       <c r="E2">
-        <v>1.016200295271653</v>
+        <v>0.9666428082594418</v>
       </c>
       <c r="F2">
-        <v>1.042866889444925</v>
+        <v>1.014220784430266</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033320481670482</v>
+        <v>1.046003403562492</v>
       </c>
       <c r="J2">
-        <v>1.019703665611906</v>
+        <v>0.9780300871620149</v>
       </c>
       <c r="K2">
-        <v>1.042820089625907</v>
+        <v>1.03831326027814</v>
       </c>
       <c r="L2">
-        <v>1.019053176183402</v>
+        <v>0.9785872897327241</v>
       </c>
       <c r="M2">
-        <v>1.045642366384276</v>
+        <v>1.025485493418435</v>
       </c>
       <c r="N2">
-        <v>1.010512101947724</v>
+        <v>0.995706997635132</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015984545280922</v>
+        <v>0.961968479777526</v>
       </c>
       <c r="D3">
-        <v>1.040703179401188</v>
+        <v>1.030520556264646</v>
       </c>
       <c r="E3">
-        <v>1.017501368530942</v>
+        <v>0.9728987020058225</v>
       </c>
       <c r="F3">
-        <v>1.043884044043582</v>
+        <v>1.01909555998813</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033432032108268</v>
+        <v>1.046925813541463</v>
       </c>
       <c r="J3">
-        <v>1.020847203927548</v>
+        <v>0.983552494534391</v>
       </c>
       <c r="K3">
-        <v>1.043297387072164</v>
+        <v>1.040777264139525</v>
       </c>
       <c r="L3">
-        <v>1.020158205455324</v>
+        <v>0.9838905095087562</v>
       </c>
       <c r="M3">
-        <v>1.046469899985069</v>
+        <v>1.029489803312524</v>
       </c>
       <c r="N3">
-        <v>1.010906688163961</v>
+        <v>0.9976782814202864</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016961764608468</v>
+        <v>0.9667205146682102</v>
       </c>
       <c r="D4">
-        <v>1.04113361854109</v>
+        <v>1.032601883928675</v>
       </c>
       <c r="E4">
-        <v>1.018342528210695</v>
+        <v>0.9768313459597363</v>
       </c>
       <c r="F4">
-        <v>1.044541364715324</v>
+        <v>1.0221680360759</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033502509462256</v>
+        <v>1.04749453843248</v>
       </c>
       <c r="J4">
-        <v>1.021585755493524</v>
+        <v>0.9870156011667072</v>
       </c>
       <c r="K4">
-        <v>1.043604669792253</v>
+        <v>1.042322133075027</v>
       </c>
       <c r="L4">
-        <v>1.020871982589181</v>
+        <v>0.9872176800820408</v>
       </c>
       <c r="M4">
-        <v>1.047003919362935</v>
+        <v>1.032006076547517</v>
       </c>
       <c r="N4">
-        <v>1.011161095301501</v>
+        <v>0.9989124636237006</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01737233355766</v>
+        <v>0.9686846861993927</v>
       </c>
       <c r="D5">
-        <v>1.041314363960756</v>
+        <v>1.033464443252269</v>
       </c>
       <c r="E5">
-        <v>1.018695984428887</v>
+        <v>0.9784585758811921</v>
       </c>
       <c r="F5">
-        <v>1.044817501088867</v>
+        <v>1.023441007168059</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033531730264007</v>
+        <v>1.047727078787382</v>
       </c>
       <c r="J5">
-        <v>1.021895914100059</v>
+        <v>0.9884465455601211</v>
       </c>
       <c r="K5">
-        <v>1.043733477897608</v>
+        <v>1.04296017717611</v>
       </c>
       <c r="L5">
-        <v>1.021171760040697</v>
+        <v>0.9885928060484754</v>
       </c>
       <c r="M5">
-        <v>1.047228075233636</v>
+        <v>1.033046797648533</v>
       </c>
       <c r="N5">
-        <v>1.011267830293866</v>
+        <v>0.9994219095726132</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017441255213879</v>
+        <v>0.9690125675401602</v>
       </c>
       <c r="D6">
-        <v>1.04134469951992</v>
+        <v>1.033608555492306</v>
       </c>
       <c r="E6">
-        <v>1.018755321630427</v>
+        <v>0.9787303100027124</v>
       </c>
       <c r="F6">
-        <v>1.044863853840272</v>
+        <v>1.023653672808</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03353661264346</v>
+        <v>1.04776574422956</v>
       </c>
       <c r="J6">
-        <v>1.021947971986615</v>
+        <v>0.9886853844659006</v>
       </c>
       <c r="K6">
-        <v>1.043755083441887</v>
+        <v>1.043066649942279</v>
       </c>
       <c r="L6">
-        <v>1.021222076870625</v>
+        <v>0.9888223484992977</v>
       </c>
       <c r="M6">
-        <v>1.047265691745848</v>
+        <v>1.033220556964087</v>
       </c>
       <c r="N6">
-        <v>1.011285738846469</v>
+        <v>0.9995069100612618</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016967251639693</v>
+        <v>0.9667468893450755</v>
       </c>
       <c r="D7">
-        <v>1.041136034500455</v>
+        <v>1.032613457705831</v>
       </c>
       <c r="E7">
-        <v>1.018347251760641</v>
+        <v>0.9768531894960634</v>
       </c>
       <c r="F7">
-        <v>1.044545055252126</v>
+        <v>1.022185117918718</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03350290151489</v>
+        <v>1.047497671157988</v>
       </c>
       <c r="J7">
-        <v>1.021589901132135</v>
+        <v>0.9870348177090866</v>
       </c>
       <c r="K7">
-        <v>1.043606392400223</v>
+        <v>1.042330702971237</v>
       </c>
       <c r="L7">
-        <v>1.020875989381045</v>
+        <v>0.9872361456557831</v>
       </c>
       <c r="M7">
-        <v>1.047006915902149</v>
+        <v>1.032020048994641</v>
       </c>
       <c r="N7">
-        <v>1.011162522353339</v>
+        <v>0.998919307188182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014983817610201</v>
+        <v>0.9569861233490831</v>
       </c>
       <c r="D8">
-        <v>1.040262057123983</v>
+        <v>1.02834729844951</v>
       </c>
       <c r="E8">
-        <v>1.016640151808293</v>
+        <v>0.9687818801504327</v>
       </c>
       <c r="F8">
-        <v>1.043210817690324</v>
+        <v>1.015885741294752</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033358533260207</v>
+        <v>1.046321077869263</v>
       </c>
       <c r="J8">
-        <v>1.020090421614083</v>
+        <v>0.9799201552587598</v>
       </c>
       <c r="K8">
-        <v>1.04298171772145</v>
+        <v>1.039156504524123</v>
       </c>
       <c r="L8">
-        <v>1.019426887959555</v>
+        <v>0.9804020104793748</v>
       </c>
       <c r="M8">
-        <v>1.045922336303236</v>
+        <v>1.026854745146075</v>
       </c>
       <c r="N8">
-        <v>1.010645644977287</v>
+        <v>0.9963820831797651</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011480039302787</v>
+        <v>0.9385393616050667</v>
       </c>
       <c r="D9">
-        <v>1.038715258406494</v>
+        <v>1.020391855053572</v>
       </c>
       <c r="E9">
-        <v>1.013626250248608</v>
+        <v>0.9535979281547617</v>
       </c>
       <c r="F9">
-        <v>1.040853174920126</v>
+        <v>1.004114496369036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033091097909824</v>
+        <v>1.044023134078924</v>
       </c>
       <c r="J9">
-        <v>1.017437231075015</v>
+        <v>0.9664661128110249</v>
       </c>
       <c r="K9">
-        <v>1.041869004029306</v>
+        <v>1.033162530775285</v>
       </c>
       <c r="L9">
-        <v>1.016863584155789</v>
+        <v>0.9674915569931103</v>
       </c>
       <c r="M9">
-        <v>1.044000001871817</v>
+        <v>1.017141169604266</v>
       </c>
       <c r="N9">
-        <v>1.009727747090801</v>
+        <v>0.9915693221701047</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009137847961366</v>
+        <v>0.9252352715458939</v>
       </c>
       <c r="D10">
-        <v>1.037679537571036</v>
+        <v>1.014755670063862</v>
       </c>
       <c r="E10">
-        <v>1.011612755257051</v>
+        <v>0.9427054850251058</v>
       </c>
       <c r="F10">
-        <v>1.03927691911508</v>
+        <v>0.9957465665224916</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032904045206979</v>
+        <v>1.042325778586096</v>
       </c>
       <c r="J10">
-        <v>1.015660763196928</v>
+        <v>0.956764859696005</v>
       </c>
       <c r="K10">
-        <v>1.041119146068815</v>
+        <v>1.02886352097837</v>
       </c>
       <c r="L10">
-        <v>1.015147810940389</v>
+        <v>0.9581924535600456</v>
       </c>
       <c r="M10">
-        <v>1.042710850355354</v>
+        <v>1.01019304505539</v>
       </c>
       <c r="N10">
-        <v>1.009110940538285</v>
+        <v>0.9880913433321211</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008122042420112</v>
+        <v>0.9191910510196422</v>
       </c>
       <c r="D11">
-        <v>1.037229987276775</v>
+        <v>1.012226367605298</v>
       </c>
       <c r="E11">
-        <v>1.010739809565534</v>
+        <v>0.937773614717981</v>
       </c>
       <c r="F11">
-        <v>1.038593295075287</v>
+        <v>0.9919816120601216</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032820971533971</v>
+        <v>1.041547823245916</v>
       </c>
       <c r="J11">
-        <v>1.014889637731391</v>
+        <v>0.9523599011978138</v>
       </c>
       <c r="K11">
-        <v>1.040792537045736</v>
+        <v>1.026921338021911</v>
       </c>
       <c r="L11">
-        <v>1.014403154310602</v>
+        <v>0.9539728500272917</v>
       </c>
       <c r="M11">
-        <v>1.042150811403045</v>
+        <v>1.007056344390676</v>
       </c>
       <c r="N11">
-        <v>1.008842676582181</v>
+        <v>0.9865109200263917</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007744474137259</v>
+        <v>0.916898887517563</v>
       </c>
       <c r="D12">
-        <v>1.037062842502643</v>
+        <v>1.011272561278656</v>
       </c>
       <c r="E12">
-        <v>1.010415388300099</v>
+        <v>0.9359060762238763</v>
       </c>
       <c r="F12">
-        <v>1.038339200145285</v>
+        <v>0.9905600841629103</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032789801959818</v>
+        <v>1.041252027550888</v>
       </c>
       <c r="J12">
-        <v>1.014602914931416</v>
+        <v>0.9506899583853208</v>
       </c>
       <c r="K12">
-        <v>1.040670931726069</v>
+        <v>1.026186937138192</v>
       </c>
       <c r="L12">
-        <v>1.014126291813578</v>
+        <v>0.9523736233822694</v>
       </c>
       <c r="M12">
-        <v>1.041942511478225</v>
+        <v>1.00587040061168</v>
       </c>
       <c r="N12">
-        <v>1.008742851637598</v>
+        <v>0.9859116494607481</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007825475408861</v>
+        <v>0.9173927736503444</v>
       </c>
       <c r="D13">
-        <v>1.037098702946274</v>
+        <v>1.011477820495264</v>
       </c>
       <c r="E13">
-        <v>1.010484985581159</v>
+        <v>0.9363083390928635</v>
       </c>
       <c r="F13">
-        <v>1.038393711938773</v>
+        <v>0.9908660812997973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032796502072577</v>
+        <v>1.041315792201235</v>
       </c>
       <c r="J13">
-        <v>1.01466443128562</v>
+        <v>0.9510497477651474</v>
       </c>
       <c r="K13">
-        <v>1.040697029527468</v>
+        <v>1.026345071489247</v>
       </c>
       <c r="L13">
-        <v>1.014185691798605</v>
+        <v>0.9527181561969457</v>
       </c>
       <c r="M13">
-        <v>1.041987205063376</v>
+        <v>1.006125760133869</v>
       </c>
       <c r="N13">
-        <v>1.008764272595604</v>
+        <v>0.9860407669726752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008090837720714</v>
+        <v>0.9190025685820039</v>
       </c>
       <c r="D14">
-        <v>1.037216174338332</v>
+        <v>1.01214782366101</v>
       </c>
       <c r="E14">
-        <v>1.010712996317184</v>
+        <v>0.9376199906312317</v>
       </c>
       <c r="F14">
-        <v>1.038572294917992</v>
+        <v>0.9918645896182391</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03281840141851</v>
+        <v>1.041523514290341</v>
       </c>
       <c r="J14">
-        <v>1.014865943139562</v>
+        <v>0.9522225708518613</v>
       </c>
       <c r="K14">
-        <v>1.04078249099333</v>
+        <v>1.026860902571988</v>
       </c>
       <c r="L14">
-        <v>1.014380274188718</v>
+        <v>0.9538413258657079</v>
       </c>
       <c r="M14">
-        <v>1.042133598918406</v>
+        <v>1.006958748833124</v>
       </c>
       <c r="N14">
-        <v>1.008834428700447</v>
+        <v>0.9864616402351768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008254302411132</v>
+        <v>0.9199880337211955</v>
       </c>
       <c r="D15">
-        <v>1.037288530900274</v>
+        <v>1.012558707301882</v>
       </c>
       <c r="E15">
-        <v>1.010853458478893</v>
+        <v>0.9384233165651252</v>
       </c>
       <c r="F15">
-        <v>1.038682303658233</v>
+        <v>0.9924766910108525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032831852942929</v>
+        <v>1.041650582009248</v>
       </c>
       <c r="J15">
-        <v>1.0149900622922</v>
+        <v>0.9529406153536809</v>
       </c>
       <c r="K15">
-        <v>1.040835108423488</v>
+        <v>1.027176974309997</v>
       </c>
       <c r="L15">
-        <v>1.014500127671839</v>
+        <v>0.9545290305611818</v>
       </c>
       <c r="M15">
-        <v>1.04222376030457</v>
+        <v>1.007469168984397</v>
       </c>
       <c r="N15">
-        <v>1.008877630308489</v>
+        <v>0.9867192995419767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009205228679451</v>
+        <v>0.9256300661885195</v>
       </c>
       <c r="D16">
-        <v>1.037709350060756</v>
+        <v>1.014921580623394</v>
       </c>
       <c r="E16">
-        <v>1.011670666267362</v>
+        <v>0.9430279910069095</v>
       </c>
       <c r="F16">
-        <v>1.039322265750767</v>
+        <v>0.9959933040013044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032909514737067</v>
+        <v>1.042376472693858</v>
       </c>
       <c r="J16">
-        <v>1.015711899600034</v>
+        <v>0.9570526476136934</v>
       </c>
       <c r="K16">
-        <v>1.041140781641946</v>
+        <v>1.028990645967331</v>
       </c>
       <c r="L16">
-        <v>1.015197194682216</v>
+        <v>0.9584681913454703</v>
       </c>
       <c r="M16">
-        <v>1.042747979623351</v>
+        <v>1.010398387677924</v>
       </c>
       <c r="N16">
-        <v>1.009128719238746</v>
+        <v>0.9881945764137934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00980127900544</v>
+        <v>0.9290903049586627</v>
       </c>
       <c r="D17">
-        <v>1.037973030592478</v>
+        <v>1.016379327373163</v>
       </c>
       <c r="E17">
-        <v>1.012182982799052</v>
+        <v>0.9458565551674858</v>
       </c>
       <c r="F17">
-        <v>1.039723402510416</v>
+        <v>0.9981600867651907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03295767340871</v>
+        <v>1.042820048763144</v>
       </c>
       <c r="J17">
-        <v>1.016164174942012</v>
+        <v>0.9595753054095251</v>
       </c>
       <c r="K17">
-        <v>1.041332009250274</v>
+        <v>1.030106135857694</v>
       </c>
       <c r="L17">
-        <v>1.015633982795791</v>
+        <v>0.9608855352413319</v>
       </c>
       <c r="M17">
-        <v>1.043076317848331</v>
+        <v>1.012200453417104</v>
       </c>
       <c r="N17">
-        <v>1.009285902594273</v>
+        <v>0.9890993550730597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01014878928281</v>
+        <v>0.9310815886422142</v>
       </c>
       <c r="D18">
-        <v>1.038126727141745</v>
+        <v>1.017221110313824</v>
       </c>
       <c r="E18">
-        <v>1.012481703743412</v>
+        <v>0.9474858718971683</v>
       </c>
       <c r="F18">
-        <v>1.03995727329621</v>
+        <v>0.9994104055841686</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03298556299309</v>
+        <v>1.043074658693989</v>
       </c>
       <c r="J18">
-        <v>1.016427796315401</v>
+        <v>0.9610272497085711</v>
       </c>
       <c r="K18">
-        <v>1.041443364281901</v>
+        <v>1.030749061512784</v>
       </c>
       <c r="L18">
-        <v>1.015888588808388</v>
+        <v>0.962277120834797</v>
       </c>
       <c r="M18">
-        <v>1.04326765575171</v>
+        <v>1.013239323962335</v>
       </c>
       <c r="N18">
-        <v>1.009377471019994</v>
+        <v>0.9896199932650446</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010267255161924</v>
+        <v>0.9317561085591706</v>
       </c>
       <c r="D19">
-        <v>1.038179116080815</v>
+        <v>1.01750672297931</v>
       </c>
       <c r="E19">
-        <v>1.01258354232336</v>
+        <v>0.9480380352482396</v>
       </c>
       <c r="F19">
-        <v>1.040036999356334</v>
+        <v>0.9998344877497194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032995038603634</v>
+        <v>1.043160785665047</v>
       </c>
       <c r="J19">
-        <v>1.016517653517244</v>
+        <v>0.9615191071507859</v>
       </c>
       <c r="K19">
-        <v>1.041481302136448</v>
+        <v>1.030966997489304</v>
       </c>
       <c r="L19">
-        <v>1.015975375059163</v>
+        <v>0.9627485737955718</v>
       </c>
       <c r="M19">
-        <v>1.043332867197682</v>
+        <v>1.013591519989076</v>
       </c>
       <c r="N19">
-        <v>1.009408674218924</v>
+        <v>0.9897963419739333</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0097373446283</v>
+        <v>0.9287218787278744</v>
       </c>
       <c r="D20">
-        <v>1.037944750908557</v>
+        <v>1.016223810356744</v>
       </c>
       <c r="E20">
-        <v>1.012128026954085</v>
+        <v>0.9455552233723111</v>
       </c>
       <c r="F20">
-        <v>1.039680375259582</v>
+        <v>0.9979290230005187</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032952527183476</v>
+        <v>1.042772885971713</v>
       </c>
       <c r="J20">
-        <v>1.016115669072883</v>
+        <v>0.9593066836679283</v>
       </c>
       <c r="K20">
-        <v>1.041311511455017</v>
+        <v>1.029987258843382</v>
       </c>
       <c r="L20">
-        <v>1.015587136686913</v>
+        <v>0.9606281008798435</v>
       </c>
       <c r="M20">
-        <v>1.04304110850622</v>
+        <v>1.012008386054276</v>
       </c>
       <c r="N20">
-        <v>1.009269050111003</v>
+        <v>0.98900302278132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.008012702189515</v>
+        <v>0.9185298628045586</v>
       </c>
       <c r="D21">
-        <v>1.03718158640783</v>
+        <v>1.011950927885443</v>
       </c>
       <c r="E21">
-        <v>1.010645857595856</v>
+        <v>0.9372347538578599</v>
       </c>
       <c r="F21">
-        <v>1.038519711294996</v>
+        <v>0.9915712057832111</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032811961228563</v>
+        <v>1.041462537023605</v>
       </c>
       <c r="J21">
-        <v>1.014806611047435</v>
+        <v>0.9518781619900035</v>
       </c>
       <c r="K21">
-        <v>1.040757332680301</v>
+        <v>1.026709369222348</v>
       </c>
       <c r="L21">
-        <v>1.014322981858226</v>
+        <v>0.9535114855608662</v>
       </c>
       <c r="M21">
-        <v>1.042090497225722</v>
+        <v>1.006714043333018</v>
       </c>
       <c r="N21">
-        <v>1.008813774455461</v>
+        <v>0.9863380503500166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006926883318906</v>
+        <v>0.9118466700572262</v>
       </c>
       <c r="D22">
-        <v>1.036700818543317</v>
+        <v>1.009181024075426</v>
       </c>
       <c r="E22">
-        <v>1.00971296982019</v>
+        <v>0.9317952680044936</v>
       </c>
       <c r="F22">
-        <v>1.037788991312763</v>
+        <v>0.987439332745679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032721774868431</v>
+        <v>1.040598941036759</v>
       </c>
       <c r="J22">
-        <v>1.013981858907653</v>
+        <v>0.9470104618126319</v>
       </c>
       <c r="K22">
-        <v>1.040407230924041</v>
+        <v>1.02457277107815</v>
       </c>
       <c r="L22">
-        <v>1.01352662780813</v>
+        <v>0.9488508071913748</v>
       </c>
       <c r="M22">
-        <v>1.041491209344009</v>
+        <v>1.003263794223352</v>
       </c>
       <c r="N22">
-        <v>1.008526483458712</v>
+        <v>0.9845910774269367</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007502638691648</v>
+        <v>0.9154173075969086</v>
       </c>
       <c r="D23">
-        <v>1.036955771440791</v>
+        <v>1.010657662777672</v>
       </c>
       <c r="E23">
-        <v>1.010207607298348</v>
+        <v>0.9346997831730487</v>
       </c>
       <c r="F23">
-        <v>1.038176451908121</v>
+        <v>0.9896431222133487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032769755653644</v>
+        <v>1.041060651971098</v>
       </c>
       <c r="J23">
-        <v>1.014419238521985</v>
+        <v>0.9496107455977886</v>
       </c>
       <c r="K23">
-        <v>1.040592984690715</v>
+        <v>1.02571291384006</v>
       </c>
       <c r="L23">
-        <v>1.013948937217806</v>
+        <v>0.95134024208197</v>
       </c>
       <c r="M23">
-        <v>1.041809055574957</v>
+        <v>1.005104939546286</v>
       </c>
       <c r="N23">
-        <v>1.008678881239402</v>
+        <v>0.9855243393114054</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009766234302906</v>
+        <v>0.9288884378359811</v>
       </c>
       <c r="D24">
-        <v>1.037957529601723</v>
+        <v>1.016294107986616</v>
       </c>
       <c r="E24">
-        <v>1.012152859458416</v>
+        <v>0.9456914454637665</v>
       </c>
       <c r="F24">
-        <v>1.039699817748601</v>
+        <v>0.9980334724467543</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032954853160979</v>
+        <v>1.042794209513325</v>
       </c>
       <c r="J24">
-        <v>1.016137587353471</v>
+        <v>0.9594281222411165</v>
       </c>
       <c r="K24">
-        <v>1.041320774097701</v>
+        <v>1.030040998044813</v>
       </c>
       <c r="L24">
-        <v>1.015608304937432</v>
+        <v>0.9607444810670478</v>
       </c>
       <c r="M24">
-        <v>1.043057018637279</v>
+        <v>1.012095210748639</v>
       </c>
       <c r="N24">
-        <v>1.009276665375042</v>
+        <v>0.989046573073101</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012386931909205</v>
+        <v>0.9434720831006608</v>
       </c>
       <c r="D25">
-        <v>1.039115940522589</v>
+        <v>1.022504100532928</v>
       </c>
       <c r="E25">
-        <v>1.014406135652801</v>
+        <v>0.9576490700935154</v>
       </c>
       <c r="F25">
-        <v>1.041463467260606</v>
+        <v>1.007243824493856</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033161781135759</v>
+        <v>1.044645209181811</v>
       </c>
       <c r="J25">
-        <v>1.018124472367177</v>
+        <v>0.9700640025594484</v>
       </c>
       <c r="K25">
-        <v>1.042158085083129</v>
+        <v>1.034762832365221</v>
       </c>
       <c r="L25">
-        <v>1.017527453380116</v>
+        <v>0.9709424479791005</v>
       </c>
       <c r="M25">
-        <v>1.044498303604836</v>
+        <v>1.019730720623002</v>
       </c>
       <c r="N25">
-        <v>1.009965897125824</v>
+        <v>0.9928578368788684</v>
       </c>
     </row>
   </sheetData>
